--- a/aspnet-core/src/KiemKeDatDai.Web.Host/wwwroot/Templates/excels/Template_Bieu02KKNLT.xlsx
+++ b/aspnet-core/src/KiemKeDatDai.Web.Host/wwwroot/Templates/excels/Template_Bieu02KKNLT.xlsx
@@ -139,9 +139,6 @@
     <t>&amp;=Data.STT</t>
   </si>
   <si>
-    <t>&amp;=Data.LoaiDat</t>
-  </si>
-  <si>
     <t>&amp;=Data.TenDonVi</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>&amp;=Data.GhiChu</t>
+  </si>
+  <si>
+    <t>&amp;=Data.TongDienTich</t>
   </si>
 </sst>
 </file>
@@ -367,32 +367,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -402,9 +429,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -414,44 +438,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,130 +805,130 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="5" customWidth="1"/>
-    <col min="5" max="7" width="11.36328125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" style="5" customWidth="1"/>
-    <col min="9" max="11" width="7.26953125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="10" style="5" customWidth="1"/>
-    <col min="15" max="15" width="7.54296875" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="5"/>
+    <col min="1" max="1" width="6.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="3" customWidth="1"/>
+    <col min="5" max="7" width="11.36328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="7.26953125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10" style="3" customWidth="1"/>
+    <col min="15" max="15" width="7.54296875" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="6" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="M3" s="6" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="4"/>
+      <c r="M3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:16" ht="14">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:16" ht="14">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="1:16" s="19" customFormat="1">
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+    </row>
+    <row r="7" spans="1:16" s="7" customFormat="1">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
@@ -946,13 +946,13 @@
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="15" t="s">
         <v>13</v>
       </c>
@@ -964,7 +964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="19" customFormat="1">
+    <row r="8" spans="1:16" s="7" customFormat="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -978,19 +978,19 @@
       <c r="G8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="18" t="s">
         <v>23</v>
       </c>
       <c r="M8" s="15" t="s">
@@ -1002,7 +1002,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:16" s="19" customFormat="1">
+    <row r="9" spans="1:16" s="7" customFormat="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1010,17 +1010,17 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="1:16" s="19" customFormat="1">
+    <row r="10" spans="1:16" s="7" customFormat="1">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -1028,187 +1028,180 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="1:16" s="25" customFormat="1" ht="8">
-      <c r="A11" s="23">
+    <row r="11" spans="1:16" s="10" customFormat="1" ht="8">
+      <c r="A11" s="8">
         <v>-1</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="9">
         <v>-2</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="9">
         <v>-3</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="9">
         <v>-5</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="9">
         <v>-6</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="9">
         <v>-7</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="9">
         <v>-9</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="9">
         <v>-10</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="9">
         <v>-11</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="9">
         <v>-12</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="9">
         <v>-13</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="9">
         <v>-14</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="9">
         <v>-15</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="9">
         <v>-16</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="77.5">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="D12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="E12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="31" t="s">
+      <c r="G12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="H12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="31" t="s">
+      <c r="J12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="K12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="L12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="M12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="31" t="s">
+      <c r="O12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" s="31" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="14" spans="1:16" ht="14">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="H14" s="27" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="H14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:16" ht="14">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="H15" s="27" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="H15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:16" ht="14">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="H16" s="29" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="H16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="H14:P14"/>
-    <mergeCell ref="H15:P15"/>
-    <mergeCell ref="H16:P16"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="M2:P2"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="M5:P5"/>
     <mergeCell ref="M6:P6"/>
@@ -1219,14 +1212,21 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="H15:P15"/>
+    <mergeCell ref="H16:P16"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
   </mergeCells>
   <conditionalFormatting sqref="A12">
     <cfRule type="expression" dxfId="1" priority="2">
